--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/incorrect_predictions_67.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/incorrect_predictions_67.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
